--- a/1准备阶段/原则目录.xlsx
+++ b/1准备阶段/原则目录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -51,14 +51,18 @@
   </si>
   <si>
     <t>通用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,10 +274,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,7 +308,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,21 +483,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -506,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -516,8 +518,11 @@
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21.75" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -528,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="21.75" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -539,157 +544,157 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
@@ -702,12 +707,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -716,12 +721,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1准备阶段/原则目录.xlsx
+++ b/1准备阶段/原则目录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -55,14 +55,18 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,9 +278,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,21 +489,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -508,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -522,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.75" customHeight="1">
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -532,8 +538,11 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21.75" customHeight="1">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -544,157 +553,157 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
@@ -707,12 +716,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -721,12 +730,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1准备阶段/原则目录.xlsx
+++ b/1准备阶段/原则目录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>通用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,7 +491,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -531,6 +535,9 @@
       </c>
       <c r="C3" s="8" t="s">
         <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.75" customHeight="1">

--- a/1准备阶段/原则目录.xlsx
+++ b/1准备阶段/原则目录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,7 +497,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,6 +561,9 @@
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>

--- a/1准备阶段/原则目录.xlsx
+++ b/1准备阶段/原则目录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -65,8 +65,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,10 +278,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +312,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,21 +487,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -514,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -528,7 +526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="21.75" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -542,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="21.75" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -553,157 +551,160 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
@@ -716,12 +717,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -730,12 +731,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1准备阶段/原则目录.xlsx
+++ b/1准备阶段/原则目录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,7 +501,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -574,6 +578,9 @@
       <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="8"/>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
